--- a/JDA_SOQ_Automation/src/test/java/testData/SOQDataSheet.xlsx
+++ b/JDA_SOQ_Automation/src/test/java/testData/SOQDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE4DB5-A60C-43F3-BE6F-DF7E58A67719}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC397EE1-46A7-4940-BB24-C81E1B61467C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
   <si>
     <t>Username</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>LOADID</t>
+  </si>
+  <si>
+    <t>BA</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,12 +177,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -253,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -275,15 +272,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -297,6 +289,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,7 +580,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,6 +590,7 @@
     <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -618,7 +619,7 @@
       <c r="R7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -632,7 +633,7 @@
       <c r="R8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="10" t="s">
+      <c r="S8" s="18" t="s">
         <v>32</v>
       </c>
     </row>
@@ -646,7 +647,7 @@
       <c r="R9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="13" t="s">
+      <c r="S9" s="18" t="s">
         <v>33</v>
       </c>
     </row>
@@ -658,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="R10" s="3"/>
-      <c r="S10" s="13" t="s">
+      <c r="S10" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -666,7 +667,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -674,11 +675,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
+      <c r="S12" s="19"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
+      <c r="S13" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -693,10 +696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,8 +718,8 @@
     <col min="13" max="13" width="11.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="29.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="51.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="29.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="51.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="29" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="16384" width="9.140625" style="1" collapsed="1"/>
@@ -765,20 +768,20 @@
       <c r="N1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="17" t="str">
+      <c r="Q1" s="14" t="str">
         <f>CONCATENATE(C1,D1,TEXT(K1,"mm/dd/yy"),G1)</f>
         <v>ItemLOCArrive DateSupplier Order code</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="10" t="s">
         <v>31</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -792,22 +795,23 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6">
-        <v>100478</v>
-      </c>
-      <c r="C2" s="9">
-        <v>187067</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="17">
+        <v>104522</v>
+      </c>
+      <c r="C2" s="17">
+        <v>446099</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="6">
         <v>25</v>
       </c>
-      <c r="F2" s="14">
-        <v>43938</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="F2" s="11">
+        <f ca="1">NOW()</f>
+        <v>43942.119285069442</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -819,11 +823,13 @@
       <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="15">
-        <v>43946</v>
-      </c>
-      <c r="L2" s="16">
-        <v>44042</v>
+      <c r="K2" s="12">
+        <f ca="1">R2+8</f>
+        <v>43950</v>
+      </c>
+      <c r="L2" s="13">
+        <f ca="1">R2+95</f>
+        <v>44037</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>25</v>
@@ -831,22 +837,87 @@
       <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="6" t="str">
-        <f>CONCATENATE(C2,D2,TEXT(K2,"mm/dd/yy"),O2)</f>
-        <v>1870678701-100004/25/20</v>
-      </c>
-      <c r="Q2" s="6" t="str">
-        <f>CONCATENATE(C2,D2)</f>
-        <v>1870678701-1000</v>
-      </c>
-      <c r="R2" s="18">
-        <v>43938</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="P2" s="6" t="e">
+        <f ca="1">CONCATENATE(#REF!,D2,TEXT(K2,"mm/dd/yy"),O2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q2" s="6" t="e">
+        <f>CONCATENATE(#REF!,D2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R2" s="15">
+        <f ca="1">TODAY()</f>
+        <v>43942</v>
+      </c>
+      <c r="S2" s="16" t="s">
         <v>34</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="17">
+        <v>100690</v>
+      </c>
+      <c r="C3" s="17">
+        <v>405898</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="6">
+        <v>55</v>
+      </c>
+      <c r="F3" s="11">
+        <f ca="1">NOW()</f>
+        <v>43942.119285069442</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="13">
+        <f ca="1">R3+8</f>
+        <v>43950</v>
+      </c>
+      <c r="L3" s="13">
+        <f ca="1">R3+95</f>
+        <v>44037</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="6" t="e">
+        <f ca="1">CONCATENATE(#REF!,D3,TEXT(K3,"mm/dd/yy"),O3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q3" s="6" t="e">
+        <f>CONCATENATE(#REF!,D3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R3" s="15">
+        <f ca="1">TODAY()</f>
+        <v>43942</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -858,25 +929,25 @@
           <x14:formula1>
             <xm:f>Login!$P$8:$P$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H2</xm:sqref>
+          <xm:sqref>H2:H3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26CA7BF0-1210-47C6-BD0E-1384F7FEE82A}">
           <x14:formula1>
             <xm:f>Login!$Q$8:$Q$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M2</xm:sqref>
+          <xm:sqref>M2:M3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0295BB4-8FE5-40D8-9042-3E5115961610}">
           <x14:formula1>
             <xm:f>Login!$R$8:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N2</xm:sqref>
+          <xm:sqref>N2:N3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F08964B-54CB-4B23-9C46-FF522B9B4B9C}">
           <x14:formula1>
             <xm:f>Login!$S$8:$S$11</xm:f>
           </x14:formula1>
-          <xm:sqref>S2</xm:sqref>
+          <xm:sqref>S2:S3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/JDA_SOQ_Automation/src/test/java/testData/SOQDataSheet.xlsx
+++ b/JDA_SOQ_Automation/src/test/java/testData/SOQDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC397EE1-46A7-4940-BB24-C81E1B61467C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD4210-A999-4126-9F2E-BF42C2A8A9A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,7 +699,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,8 +808,7 @@
         <v>25</v>
       </c>
       <c r="F2" s="11">
-        <f ca="1">NOW()</f>
-        <v>43942.119285069442</v>
+        <v>43942</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>38</v>
@@ -824,12 +823,10 @@
         <v>16</v>
       </c>
       <c r="K2" s="12">
-        <f ca="1">R2+8</f>
         <v>43950</v>
       </c>
       <c r="L2" s="13">
-        <f ca="1">R2+95</f>
-        <v>44037</v>
+        <v>44041</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>25</v>
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="P2" s="6" t="e">
-        <f ca="1">CONCATENATE(#REF!,D2,TEXT(K2,"mm/dd/yy"),O2)</f>
+        <f>CONCATENATE(#REF!,D2,TEXT(K2,"mm/dd/yy"),O2)</f>
         <v>#REF!</v>
       </c>
       <c r="Q2" s="6" t="e">
@@ -846,7 +843,6 @@
         <v>#REF!</v>
       </c>
       <c r="R2" s="15">
-        <f ca="1">TODAY()</f>
         <v>43942</v>
       </c>
       <c r="S2" s="16" t="s">
@@ -872,8 +868,7 @@
         <v>55</v>
       </c>
       <c r="F3" s="11">
-        <f ca="1">NOW()</f>
-        <v>43942.119285069442</v>
+        <v>43942</v>
       </c>
       <c r="G3" s="16" t="s">
         <v>40</v>
@@ -888,12 +883,10 @@
         <v>16</v>
       </c>
       <c r="K3" s="13">
-        <f ca="1">R3+8</f>
         <v>43950</v>
       </c>
       <c r="L3" s="13">
-        <f ca="1">R3+95</f>
-        <v>44037</v>
+        <v>44041</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>25</v>
@@ -902,7 +895,7 @@
         <v>23</v>
       </c>
       <c r="P3" s="6" t="e">
-        <f ca="1">CONCATENATE(#REF!,D3,TEXT(K3,"mm/dd/yy"),O3)</f>
+        <f>CONCATENATE(#REF!,D3,TEXT(K3,"mm/dd/yy"),O3)</f>
         <v>#REF!</v>
       </c>
       <c r="Q3" s="6" t="e">
@@ -910,7 +903,6 @@
         <v>#REF!</v>
       </c>
       <c r="R3" s="15">
-        <f ca="1">TODAY()</f>
         <v>43942</v>
       </c>
       <c r="S3" s="16" t="s">

--- a/JDA_SOQ_Automation/src/test/java/testData/SOQDataSheet.xlsx
+++ b/JDA_SOQ_Automation/src/test/java/testData/SOQDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FD4210-A999-4126-9F2E-BF42C2A8A9A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24D332F-62BC-4CE5-ACB4-9381CE72FEAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,7 +699,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,8 +718,8 @@
     <col min="13" max="13" width="11.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="29.140625" style="1" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="51.42578125" style="1" hidden="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="29.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="51.42578125" style="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="21" width="29" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="16384" width="9.140625" style="1" collapsed="1"/>
@@ -811,7 +811,7 @@
         <v>43942</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>17</v>
@@ -834,13 +834,13 @@
       <c r="N2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="6" t="e">
-        <f>CONCATENATE(#REF!,D2,TEXT(K2,"mm/dd/yy"),O2)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q2" s="6" t="e">
-        <f>CONCATENATE(#REF!,D2)</f>
-        <v>#REF!</v>
+      <c r="P2" s="6" t="str">
+        <f>CONCATENATE(C2,D2,TEXT(K2,"mm/dd/yy"),O2)</f>
+        <v>4460998701-100004/29/20</v>
+      </c>
+      <c r="Q2" s="6" t="str">
+        <f>CONCATENATE(P2,G2)</f>
+        <v>4460998701-100004/29/20BA</v>
       </c>
       <c r="R2" s="15">
         <v>43942</v>
@@ -871,7 +871,7 @@
         <v>43942</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>17</v>
@@ -894,13 +894,13 @@
       <c r="N3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="6" t="e">
-        <f>CONCATENATE(#REF!,D3,TEXT(K3,"mm/dd/yy"),O3)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q3" s="6" t="e">
-        <f>CONCATENATE(#REF!,D3)</f>
-        <v>#REF!</v>
+      <c r="P3" s="6" t="str">
+        <f>CONCATENATE(C3,D3,TEXT(K3,"mm/dd/yy"),O3)</f>
+        <v>4058988701-100004/29/20</v>
+      </c>
+      <c r="Q3" s="6" t="str">
+        <f>CONCATENATE(P3,G3)</f>
+        <v>4058988701-100004/29/20HO</v>
       </c>
       <c r="R3" s="15">
         <v>43942</v>

--- a/JDA_SOQ_Automation/src/test/java/testData/SOQDataSheet.xlsx
+++ b/JDA_SOQ_Automation/src/test/java/testData/SOQDataSheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24D332F-62BC-4CE5-ACB4-9381CE72FEAF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62214BC3-3A16-411F-B14B-30CF1E2D9D16}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Username</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>LOADID</t>
-  </si>
-  <si>
-    <t>BA</t>
   </si>
 </sst>
 </file>
@@ -250,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -277,9 +274,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -590,7 +584,7 @@
     <col min="16" max="16" width="22.28515625" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="27.5703125" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -633,7 +627,7 @@
       <c r="R8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="S8" s="18" t="s">
+      <c r="S8" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -647,7 +641,7 @@
       <c r="R9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -659,7 +653,7 @@
         <v>27</v>
       </c>
       <c r="R10" s="3"/>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -667,7 +661,7 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="17" t="s">
         <v>35</v>
       </c>
     </row>
@@ -675,13 +669,13 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="19"/>
+      <c r="S12" s="18"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="19"/>
+      <c r="S13" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -696,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,10 +711,10 @@
     <col min="12" max="12" width="16.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="11.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="14" max="14" width="10.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="29.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="51.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="19" max="21" width="29" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
@@ -768,15 +762,15 @@
       <c r="N1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="14" t="str">
-        <f>CONCATENATE(C1,D1,TEXT(K1,"mm/dd/yy"),G1)</f>
-        <v>ItemLOCArrive DateSupplier Order code</v>
+      <c r="Q1" s="13" t="str">
+        <f>CONCATENATE(C1,D1)</f>
+        <v>ItemLOC</v>
       </c>
       <c r="R1" s="10" t="s">
         <v>30</v>
@@ -795,23 +789,23 @@
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17">
-        <v>104522</v>
-      </c>
-      <c r="C2" s="17">
-        <v>446099</v>
-      </c>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="16">
+        <v>101079</v>
+      </c>
+      <c r="C2" s="16">
+        <v>448807</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="6">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F2" s="11">
         <v>43942</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>40</v>
+      <c r="G2" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>17</v>
@@ -825,7 +819,7 @@
       <c r="K2" s="12">
         <v>43950</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <v>44041</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -836,80 +830,20 @@
       </c>
       <c r="P2" s="6" t="str">
         <f>CONCATENATE(C2,D2,TEXT(K2,"mm/dd/yy"),O2)</f>
-        <v>4460998701-100004/29/20</v>
+        <v>4488078701-100004/29/20</v>
       </c>
       <c r="Q2" s="6" t="str">
-        <f>CONCATENATE(P2,G2)</f>
-        <v>4460998701-100004/29/20BA</v>
-      </c>
-      <c r="R2" s="15">
+        <f>CONCATENATE(C2,D2)</f>
+        <v>4488078701-1000</v>
+      </c>
+      <c r="R2" s="14">
         <v>43942</v>
       </c>
-      <c r="S2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="17">
-        <v>100690</v>
-      </c>
-      <c r="C3" s="17">
-        <v>405898</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="6">
-        <v>55</v>
-      </c>
-      <c r="F3" s="11">
-        <v>43942</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="13">
-        <v>43950</v>
-      </c>
-      <c r="L3" s="13">
-        <v>44041</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="6" t="str">
-        <f>CONCATENATE(C3,D3,TEXT(K3,"mm/dd/yy"),O3)</f>
-        <v>4058988701-100004/29/20</v>
-      </c>
-      <c r="Q3" s="6" t="str">
-        <f>CONCATENATE(P3,G3)</f>
-        <v>4058988701-100004/29/20HO</v>
-      </c>
-      <c r="R3" s="15">
-        <v>43942</v>
-      </c>
-      <c r="S3" s="16" t="s">
+      <c r="S2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="T2"/>
+      <c r="U2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -921,25 +855,25 @@
           <x14:formula1>
             <xm:f>Login!$P$8:$P$10</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H3</xm:sqref>
+          <xm:sqref>H2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{26CA7BF0-1210-47C6-BD0E-1384F7FEE82A}">
           <x14:formula1>
             <xm:f>Login!$Q$8:$Q$10</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M3</xm:sqref>
+          <xm:sqref>M2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0295BB4-8FE5-40D8-9042-3E5115961610}">
           <x14:formula1>
             <xm:f>Login!$R$8:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N3</xm:sqref>
+          <xm:sqref>N2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1F08964B-54CB-4B23-9C46-FF522B9B4B9C}">
           <x14:formula1>
             <xm:f>Login!$S$8:$S$11</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S3</xm:sqref>
+          <xm:sqref>S2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
